--- a/tests/translate_docx_private_request/file from device/test_file_on_device.xlsx
+++ b/tests/translate_docx_private_request/file from device/test_file_on_device.xlsx
@@ -116,23 +116,12 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Clicks an Element</t>
-        </d:r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t/>
   </si>
@@ -167,7 +156,7 @@
     <t>test_file_on_device</t>
   </si>
   <si>
-    <t>sử dụng file ở trên điện thoại để dịch =&gt; kq đúng</t>
+    <t>sử dụng file ở trên điện thoại để dịch, file có nội dung là Hello everyone =&gt; kq đúng</t>
   </si>
   <si>
     <t>Platform</t>
@@ -194,7 +183,7 @@
     <t>Last Modified on</t>
   </si>
   <si>
-    <t>04/22/2022 13:42:04</t>
+    <t>04/29/2022 15:02:36</t>
   </si>
   <si>
     <t>Android Application</t>
@@ -209,7 +198,7 @@
     <t>com.expotranslationuet/com.expotranslationuet.MainActivity</t>
   </si>
   <si>
-    <t>Steps (10)</t>
+    <t>Steps (9)</t>
   </si>
   <si>
     <t>#</t>
@@ -290,25 +279,25 @@
     <t>android.widget.ImageButton: Hiển thị gốc (located by XPATH: //android.widget.ImageButton[@content-desc = 'Hiển thị gốc'])</t>
   </si>
   <si>
-    <t>Click 'Minh Hiếu1' (android.widget.TextView)</t>
-  </si>
-  <si>
-    <t>android.widget.TextView: Minh Hiếu1 (located by XPATH: //android.widget.LinearLayout/android.widget.LinearLayout/android.widget.TextView[@text = 'Minh Hiếu'])</t>
-  </si>
-  <si>
-    <t>Make a Swipe gesture from ('535','1391') to ('526','758')</t>
+    <t>Click 'Minh Hiếu' (android.widget.TextView)</t>
+  </si>
+  <si>
+    <t>android.widget.TextView: Minh Hiếu (located by XPATH: //android.widget.TextView[@text = 'Minh Hiếu'])</t>
+  </si>
+  <si>
+    <t>Make a Swipe gesture from ('540','1837') to ('549','1084')</t>
   </si>
   <si>
     <t>Swipe gesture</t>
   </si>
   <si>
-    <t>startX=535; startY=1391; endX=526; endY=758; duration=300</t>
-  </si>
-  <si>
-    <t>Click 'Download1' (android.widget.TextView)</t>
-  </si>
-  <si>
-    <t>android.widget.TextView: Download1 (located by XPATH: //android.widget.TextView[@text = 'Download'])</t>
+    <t>startX=540; startY=1837; endX=549; endY=1084; duration=300</t>
+  </si>
+  <si>
+    <t>Click 'Download2' (android.widget.TextView)</t>
+  </si>
+  <si>
+    <t>android.widget.TextView: Download2 (located by XPATH: //android.widget.TextView[@text = 'Download'])</t>
   </si>
   <si>
     <t>Click 'com.google.android.documentsui:id/ico...' (android.widget.ImageView)</t>
@@ -327,12 +316,6 @@
   </si>
   <si>
     <t>android.widget.TextView: Ấn vào đây để tải tài liệu tiếng Việt (located by XPATH: //android.widget.TextView[@text = 'Ấn vào đây để tải tài liệu tiếng Việt'])</t>
-  </si>
-  <si>
-    <t>Click 'Bạn có muốn tải target_file.docx ( (9...' (android.widget.TextView)</t>
-  </si>
-  <si>
-    <t>android.widget.TextView: Bạn có muốn tải target_file.docx ( (9... (located by ID: com.android.chrome:id/message)</t>
   </si>
 </sst>
 </file>
@@ -516,8 +499,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Steps_3LspbZdw" displayName="Steps_3LspbZdw" ref="A22:O32">
-  <autoFilter ref="A22:O32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Steps_vDDdmK32" displayName="Steps_vDDdmK32" ref="A22:O31">
+  <autoFilter ref="A22:O31"/>
   <tableColumns count="15">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Details"/>
@@ -541,14 +524,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.571428298950195" customWidth="1"/>
-    <col min="2" max="2" width="82.14286041259766" customWidth="1"/>
+    <col min="2" max="2" width="89.28571319580078" customWidth="1"/>
     <col min="3" max="3" width="55.42856979370117" customWidth="1"/>
     <col min="4" max="4" width="15.714285850524902" customWidth="1"/>
     <col min="5" max="5" width="328.4285583496094" customWidth="1"/>
@@ -557,7 +540,7 @@
     <col min="8" max="8" width="21.285715103149414" customWidth="1"/>
     <col min="9" max="9" width="14.821428298950195" customWidth="1"/>
     <col min="10" max="10" width="11.535714149475098" customWidth="1"/>
-    <col min="11" max="11" width="68.57142639160156" customWidth="1"/>
+    <col min="11" max="11" width="69.85713958740234" customWidth="1"/>
     <col min="12" max="12" width="11.392857551574707" customWidth="1"/>
     <col min="13" max="13" width="13.964285850524902" customWidth="1"/>
     <col min="14" max="14" width="14.392857551574707" customWidth="1"/>
@@ -1113,91 +1096,47 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>9</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="0">
+      <c r="J31" s="11">
         <v>1</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="13">
-        <v>10</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="16" t="b">
+      <c r="K31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="16" t="b">
         <v>0</v>
       </c>
     </row>
